--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>reactor</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>h2-q-with updated terminator resistance</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1058,21 +1064,22 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,43 +1090,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1129,44 +1139,47 @@
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
       <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>1.6</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>187</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1176,44 +1189,47 @@
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>26</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>28</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
       <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.9</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>1.6</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>187</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1223,44 +1239,47 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>35</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>37</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
       <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>0.9</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>1.6</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>187</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1270,44 +1289,47 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>39</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>41</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
       <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>0.9</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>1.6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>187</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1317,44 +1339,47 @@
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>44</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>45</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
       <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.9</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>1.6</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>187</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1364,44 +1389,47 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>46</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>48</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.9</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>1.6</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>187</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1411,44 +1439,47 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>18</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0.9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>1.6</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>187</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1458,44 +1489,47 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>23</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>24</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>1.6</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>187</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1505,44 +1539,47 @@
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>52</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>53</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
       <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
         <v>0.9</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>1.6</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>187</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1552,44 +1589,47 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>62</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>0.9</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>1.6</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>187</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1599,44 +1639,47 @@
       <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
       <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.9</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>1.6</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>187</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1646,44 +1689,47 @@
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
       <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.9</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>1.6</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>187</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1693,44 +1739,47 @@
       <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>9</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
       <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>0.9</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>1.6</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>187</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1740,44 +1789,47 @@
       <c r="C15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>14</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>16</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>0.9</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>1.6</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>187</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1787,40 +1839,43 @@
       <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>26</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
       <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
         <v>0.9</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>1.6</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>187</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>58</v>
       </c>
     </row>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="16425" yWindow="-15" windowWidth="8280" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>reactor</t>
   </si>
@@ -190,20 +190,26 @@
     <t>20kHz_square_wave_day-09.csv</t>
   </si>
   <si>
-    <t>h2-q-with updated terminator resistance</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>Between_runs_2May17_day-07.csv</t>
+  </si>
+  <si>
+    <t>051017</t>
+  </si>
+  <si>
+    <t>h2-q-cal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,15 +358,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +537,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -706,8 +711,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1084,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1130,52 +1135,52 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>1.6</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1189,8 +1194,8 @@
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1239,8 +1244,8 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>60</v>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -1289,8 +1294,8 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>60</v>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1339,8 +1344,8 @@
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>60</v>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1389,8 +1394,8 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>60</v>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1439,8 +1444,8 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>60</v>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -1489,8 +1494,8 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -1530,152 +1535,152 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>52</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>53</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.9</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>1.6</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>187</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>62</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>0.9</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>1.6</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>187</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.9</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <v>1.6</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>187</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1689,8 +1694,8 @@
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
@@ -1739,8 +1744,8 @@
       <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>60</v>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>52</v>
@@ -1790,7 +1795,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>55</v>
@@ -1830,53 +1835,103 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N16" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="4">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4">
-        <v>28</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="F17" s="4">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.9</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M17" s="4">
         <v>1.6</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <v>187</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>58</v>
+      <c r="P17" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>reactor</t>
   </si>
@@ -202,7 +202,31 @@
     <t>051017</t>
   </si>
   <si>
-    <t>h2-q-cal</t>
+    <t>2017-05-12-33b-h2</t>
+  </si>
+  <si>
+    <t>051517</t>
+  </si>
+  <si>
+    <t>6000ns-30v.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v</t>
+  </si>
+  <si>
+    <t>6000ns-30v</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_30v_6000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_40v_6000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>ipbx-h2-q-voltchange-temp.csv</t>
+  </si>
+  <si>
+    <t>IPB4-h2-dc-200-400C.csv</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1093,7 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1795,7 +1819,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>55</v>
@@ -1845,7 +1869,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>57</v>
@@ -1895,7 +1919,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
@@ -1904,7 +1928,7 @@
         <v>60</v>
       </c>
       <c r="G17" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1931,7 +1955,57 @@
         <v>44</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>187</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="-15" windowWidth="8280" windowHeight="8310"/>
+    <workbookView xWindow="7935" yWindow="-405" windowWidth="19875" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>reactor</t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>IPB4-h2-dc-200-400C.csv</t>
+  </si>
+  <si>
+    <t>051617</t>
+  </si>
+  <si>
+    <t>q-temp-100ns3_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipbx-h2-q-200-250-275-300-325-350-400.csv</t>
+  </si>
+  <si>
+    <t>q-6000ns-40v-2_day-01.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1108,7 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2008,6 +2023,106 @@
         <v>66</v>
       </c>
     </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>187</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>187</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>reactor</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>100ns-300v</t>
+  </si>
+  <si>
+    <t>051817</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2081,7 +2084,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>73</v>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>reactor</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>051817</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1117,16 +1120,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,25 +1162,28 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1208,25 +1215,28 @@
         <v>11</v>
       </c>
       <c r="K2" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1258,25 +1268,28 @@
         <v>11</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>187</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1308,25 +1321,28 @@
         <v>11</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.9</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.6</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>187</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1358,25 +1374,28 @@
         <v>11</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.6</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>187</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1408,25 +1427,28 @@
         <v>11</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>0.9</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>187</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1458,25 +1480,28 @@
         <v>11</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.6</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>187</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1508,25 +1533,28 @@
         <v>11</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>0.9</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.6</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>187</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1558,25 +1586,28 @@
         <v>11</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>187</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1608,25 +1639,28 @@
         <v>11</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>0.9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.6</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>187</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1657,26 +1691,29 @@
       <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.9</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>1.6</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>187</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1708,25 +1745,28 @@
         <v>39</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>0.9</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>1.6</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>187</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1758,25 +1798,28 @@
         <v>39</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>0.9</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>1.6</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>187</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1808,25 +1851,28 @@
         <v>39</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.9</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>1.6</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>187</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1857,26 +1903,29 @@
       <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.9</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>1.6</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>187</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1908,25 +1957,28 @@
         <v>39</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.9</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>1.6</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>187</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1957,26 +2009,29 @@
       <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="4">
-        <v>0</v>
+      <c r="K17" s="2">
+        <v>16.5</v>
       </c>
       <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
         <v>0.9</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>1.6</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>187</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2007,26 +2062,29 @@
       <c r="J18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
+      <c r="K18" s="2">
+        <v>16.5</v>
       </c>
       <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>0.9</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>1.6</v>
       </c>
-      <c r="N18" s="4">
-        <v>187</v>
-      </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="4">
+        <v>189</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2058,25 +2116,28 @@
         <v>39</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <v>0.9</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>1.6</v>
       </c>
-      <c r="N19" s="2">
-        <v>187</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="2">
+        <v>189</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2108,21 +2169,24 @@
         <v>39</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>0.9</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>1.6</v>
       </c>
-      <c r="N20" s="2">
-        <v>187</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="2">
+        <v>189</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>66</v>
       </c>
     </row>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>reactor</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>coreL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPBx_Qkcal_30v_6000ns_200-400C_H2.csv </t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2148,7 +2151,7 @@
         <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>74</v>
@@ -2192,5 +2195,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>reactor</t>
   </si>
@@ -251,6 +251,30 @@
   </si>
   <si>
     <t xml:space="preserve">IPBx_Qkcal_30v_6000ns_200-400C_H2.csv </t>
+  </si>
+  <si>
+    <t>053017</t>
+  </si>
+  <si>
+    <t>6000ns-40-calibration.csv</t>
+  </si>
+  <si>
+    <t>6000ns_40v-gcalibration_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns_40v-excitation-2_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb12-6000ns-40v-excitation-19-27w.csv</t>
+  </si>
+  <si>
+    <t>053117</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibrationwLowH2Pressure</t>
+  </si>
+  <si>
+    <t>6000ns-40v-excitation</t>
   </si>
 </sst>
 </file>
@@ -407,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,12 +609,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -754,13 +772,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1106,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N2" sqref="N2:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1243,7 @@
         <v>0.9</v>
       </c>
       <c r="N2" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O2" s="2">
         <v>187</v>
@@ -1280,7 +1296,7 @@
         <v>0.9</v>
       </c>
       <c r="N3" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O3" s="2">
         <v>187</v>
@@ -1333,7 +1349,7 @@
         <v>0.9</v>
       </c>
       <c r="N4" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O4" s="2">
         <v>187</v>
@@ -1386,7 +1402,7 @@
         <v>0.9</v>
       </c>
       <c r="N5" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O5" s="2">
         <v>187</v>
@@ -1439,7 +1455,7 @@
         <v>0.9</v>
       </c>
       <c r="N6" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O6" s="2">
         <v>187</v>
@@ -1492,7 +1508,7 @@
         <v>0.9</v>
       </c>
       <c r="N7" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O7" s="2">
         <v>187</v>
@@ -1545,7 +1561,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O8" s="2">
         <v>187</v>
@@ -1598,7 +1614,7 @@
         <v>0.9</v>
       </c>
       <c r="N9" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O9" s="2">
         <v>187</v>
@@ -1651,7 +1667,7 @@
         <v>0.9</v>
       </c>
       <c r="N10" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O10" s="2">
         <v>187</v>
@@ -1664,55 +1680,55 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>60</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>62</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="2">
         <v>16.5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>0.9</v>
       </c>
-      <c r="N11" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O11" s="2">
         <v>187</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1757,7 +1773,7 @@
         <v>0.9</v>
       </c>
       <c r="N12" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O12" s="2">
         <v>187</v>
@@ -1810,7 +1826,7 @@
         <v>0.9</v>
       </c>
       <c r="N13" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O13" s="2">
         <v>187</v>
@@ -1863,7 +1879,7 @@
         <v>0.9</v>
       </c>
       <c r="N14" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O14" s="2">
         <v>187</v>
@@ -1876,55 +1892,55 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>14</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="2">
         <v>16.5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <v>0.9</v>
       </c>
-      <c r="N15" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O15" s="2">
         <v>187</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1969,7 +1985,7 @@
         <v>0.9</v>
       </c>
       <c r="N16" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O16" s="2">
         <v>187</v>
@@ -1982,108 +1998,108 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>60</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>62</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="2">
         <v>16.5</v>
       </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>0.9</v>
       </c>
-      <c r="N17" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O17" s="2">
         <v>187</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="2">
         <v>16.5</v>
       </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>0.9</v>
       </c>
-      <c r="N18" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="N18" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O18" s="2">
         <v>189</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2091,7 +2107,7 @@
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2128,7 +2144,7 @@
         <v>0.9</v>
       </c>
       <c r="N19" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O19" s="2">
         <v>189</v>
@@ -2144,7 +2160,7 @@
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2181,7 +2197,7 @@
         <v>0.9</v>
       </c>
       <c r="N20" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O20" s="2">
         <v>189</v>
@@ -2189,8 +2205,114 @@
       <c r="P20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>66</v>
+      <c r="Q20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O21" s="2">
+        <v>189</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2">
+        <v>24</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O22" s="2">
+        <v>189</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="-405" windowWidth="19875" windowHeight="8310"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19440" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
   <si>
     <t>reactor</t>
   </si>
@@ -275,6 +275,63 @@
   </si>
   <si>
     <t>6000ns-40v-excitation</t>
+  </si>
+  <si>
+    <t>2017-06-01-33b-H2</t>
+  </si>
+  <si>
+    <t>062817</t>
+  </si>
+  <si>
+    <t>IPB2_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2_6-27-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPBx_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2.csv</t>
+  </si>
+  <si>
+    <t>8000ns-100ns</t>
+  </si>
+  <si>
+    <t>10000ns-30v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB1_10000ns_30v-275-325.csv</t>
+  </si>
+  <si>
+    <t>10000ns-30v</t>
+  </si>
+  <si>
+    <t>91ns-300-629_day-01.csv</t>
+  </si>
+  <si>
+    <t>91.ns-300v</t>
+  </si>
+  <si>
+    <t>IPB1_91ns_300v-275-325.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-630_day-01.csv</t>
+  </si>
+  <si>
+    <t>063017</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_30v_6000ns_275-325.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>070417</t>
+  </si>
+  <si>
+    <t>070517</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp_day-02.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N22"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2315,6 +2372,320 @@
         <v>86</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="2">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O23" s="2">
+        <v>189</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O24" s="2">
+        <v>189</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O25" s="2">
+        <v>189</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O26" s="2">
+        <v>189</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O27" s="2">
+        <v>189</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="2">
+        <v>51</v>
+      </c>
+      <c r="G28" s="2">
+        <v>52</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O28" s="2">
+        <v>189</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\logDataProcess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19440" windowHeight="14340"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="19440" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
   <si>
     <t>reactor</t>
   </si>
@@ -304,9 +309,6 @@
     <t>91ns-300-629_day-01.csv</t>
   </si>
   <si>
-    <t>91.ns-300v</t>
-  </si>
-  <si>
     <t>IPB1_91ns_300v-275-325.csv</t>
   </si>
   <si>
@@ -332,12 +334,30 @@
   </si>
   <si>
     <t>10us-80ns</t>
+  </si>
+  <si>
+    <t>070617</t>
+  </si>
+  <si>
+    <t>070717</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp_75_day-01.csv</t>
+  </si>
+  <si>
+    <t>80ns-300v-excitation_day-01.csv</t>
+  </si>
+  <si>
+    <t>80ns-300v</t>
+  </si>
+  <si>
+    <t>91ns-300v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,9 +988,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,6 +1040,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1179,34 +1233,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1312,7 +1366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1630,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1683,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1948,7 +2002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2001,7 +2055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +2108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +2426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2489,7 +2543,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>95</v>
@@ -2528,10 +2582,10 @@
         <v>44</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2539,13 +2593,13 @@
         <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2">
         <v>45</v>
@@ -2584,7 +2638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2592,11 +2646,11 @@
         <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2">
         <v>50</v>
@@ -2635,7 +2689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -2643,11 +2697,11 @@
         <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2">
         <v>51</v>
@@ -2683,7 +2737,109 @@
         <v>44</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="2">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2">
+        <v>54</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O29" s="2">
+        <v>189</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="2">
+        <v>55</v>
+      </c>
+      <c r="G30" s="2">
+        <v>55</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="O30" s="2">
+        <v>189</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\logDataProcess\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19440" windowHeight="14340"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19440" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
   <si>
     <t>reactor</t>
   </si>
@@ -352,12 +347,27 @@
   </si>
   <si>
     <t>91ns-300v</t>
+  </si>
+  <si>
+    <t>2017-08-02-33b-newcable</t>
+  </si>
+  <si>
+    <t>080317</t>
+  </si>
+  <si>
+    <t>080417</t>
+  </si>
+  <si>
+    <t>10us-35v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-30v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +696,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -849,11 +865,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,7 +973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,26 +1006,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,23 +1041,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1233,31 +1217,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2689,54 +2673,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>51</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>52</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="K28" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="4">
         <v>2.02</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="4">
         <v>189</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2840,6 +2824,208 @@
       </c>
       <c r="Q30" s="2" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O31" s="2">
+        <v>189</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O32" s="2">
+        <v>189</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O33" s="2">
+        <v>189</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O34" s="2">
+        <v>189</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="120">
   <si>
     <t>reactor</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>10us-30v</t>
+  </si>
+  <si>
+    <t>91ns-300v-ex_day-04.csv</t>
+  </si>
+  <si>
+    <t>080817</t>
+  </si>
+  <si>
+    <t>91ns-300v-ex_day-06.csv</t>
+  </si>
+  <si>
+    <t>081017</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3028,6 +3040,106 @@
         <v>115</v>
       </c>
     </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O35" s="2">
+        <v>189</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O36" s="2">
+        <v>189</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/sri-ipb2-33.xlsx
+++ b/matlab/logDataProcess/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
   <si>
     <t>reactor</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>081017</t>
+  </si>
+  <si>
+    <t>081917</t>
+  </si>
+  <si>
+    <t>91ns-300v-ex_day-15.csv</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3140,6 +3146,56 @@
         <v>104</v>
       </c>
     </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="2">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="O37" s="2">
+        <v>189</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
